--- a/DATA_goal/Junction_Flooding_55.xlsx
+++ b/DATA_goal/Junction_Flooding_55.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41487.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>50.09</v>
+        <v>5.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41487.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.22</v>
+        <v>3.82</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.16</v>
+        <v>3.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.94</v>
+        <v>4.79</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>202.88</v>
+        <v>20.29</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.25</v>
+        <v>3.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.65</v>
+        <v>2.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.71</v>
+        <v>2.57</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.46</v>
+        <v>1.65</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>42.83</v>
+        <v>4.28</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41487.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.82</v>
+        <v>2.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.2</v>
+        <v>4.92</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.01</v>
+        <v>4.1</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.33</v>
+        <v>6.83</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.4</v>
+        <v>2.04</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.36</v>
+        <v>2.54</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>262.56</v>
+        <v>26.26</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.36</v>
+        <v>4.94</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.15</v>
+        <v>1.61</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.33</v>
+        <v>3.33</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.33</v>
+        <v>3.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.97</v>
+        <v>2.1</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>61.64</v>
+        <v>6.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41487.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.93</v>
+        <v>2.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.37</v>
+        <v>4.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.39</v>
+        <v>3.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>67.45999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.22</v>
+        <v>2.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.94</v>
+        <v>1.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.41</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>252.32</v>
+        <v>25.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.54</v>
+        <v>4.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.16</v>
+        <v>3.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.15</v>
+        <v>1.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.31</v>
+        <v>3.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>60.93</v>
+        <v>6.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41487.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.45</v>
+        <v>2.35</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>50.73</v>
+        <v>5.07</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>42.11</v>
+        <v>4.21</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>71.86</v>
+        <v>7.19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.12</v>
+        <v>2.81</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>26.14</v>
+        <v>2.61</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>270.67</v>
+        <v>27.07</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.93</v>
+        <v>5.09</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>34.48</v>
+        <v>3.45</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>35.36</v>
+        <v>3.54</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.65</v>
+        <v>1.46</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>64.95</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41487.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>49.7</v>
+        <v>4.97</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>41.23</v>
+        <v>4.12</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>70.77</v>
+        <v>7.08</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>25.61</v>
+        <v>2.56</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>264.97</v>
+        <v>26.5</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>49.91</v>
+        <v>4.99</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>33.8</v>
+        <v>3.38</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>34.69</v>
+        <v>3.47</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>21.06</v>
+        <v>2.11</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>64.02</v>
+        <v>6.4</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41487.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>51.06</v>
+        <v>5.11</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.21</v>
+        <v>1.92</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>182.58</v>
+        <v>18.26</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>34.82</v>
+        <v>3.48</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>24.81</v>
+        <v>2.48</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>46.2</v>
+        <v>4.62</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41487.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>30.36</v>
+        <v>3.04</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>99.04000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>27.51</v>
+        <v>2.75</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41487.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18.55</v>
+        <v>1.85</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>31.67</v>
+        <v>3.17</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P10" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T10" s="4" t="n">
         <v>11.51</v>
       </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>115.05</v>
-      </c>
       <c r="U10" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>28.5</v>
+        <v>2.85</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_55.xlsx
+++ b/DATA_goal/Junction_Flooding_55.xlsx
@@ -444,28 +444,28 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.29</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.68</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.08</v>
+        <v>30.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.78</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.83</v>
+        <v>158.35</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.03</v>
+        <v>30.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.71</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.34</v>
+        <v>33.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.17</v>
+        <v>31.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.57</v>
+        <v>25.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.4</v>
+        <v>44.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.21</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.42</v>
+        <v>164.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.27</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.95</v>
+        <v>39.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_55.xlsx
+++ b/DATA_goal/Junction_Flooding_55.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -759,34 +759,34 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.56</v>
+        <v>4.564</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.02</v>
+        <v>8.016999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.56</v>
+        <v>5.561</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.994</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.98</v>
+        <v>8.978999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.52</v>
+        <v>3.521</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.17</v>
+        <v>2.172</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>2.92</v>
@@ -795,16 +795,16 @@
         <v>4.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.864</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.619</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.06</v>
+        <v>2.061</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.6</v>
@@ -816,46 +816,46 @@
         <v>32.29</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.22</v>
+        <v>7.222</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.12</v>
+        <v>5.122</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.92</v>
+        <v>2.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>2.11</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.331</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.34</v>
+        <v>2.338</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.32</v>
+        <v>3.317</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.8</v>
+        <v>6.801</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.078</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.68</v>
+        <v>2.679</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.68</v>
+        <v>14.681</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.56</v>
+        <v>10.562</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.77</v>
+        <v>30.767</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.78</v>
+        <v>24.776</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.53</v>
+        <v>10.528</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.85</v>
+        <v>37.855</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.53</v>
+        <v>16.534</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.26</v>
+        <v>7.257</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.94</v>
+        <v>10.937</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.16</v>
+        <v>12.157</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.59</v>
+        <v>13.591</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.497</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.36</v>
+        <v>10.361</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.971</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.503</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.35</v>
+        <v>158.348</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.31</v>
+        <v>30.314</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.33</v>
+        <v>10.328</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.71</v>
+        <v>20.711</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.04</v>
+        <v>11.039</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.426</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.77</v>
+        <v>18.775</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.875</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.42</v>
+        <v>7.424</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.282</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.94</v>
+        <v>12.944</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.38</v>
+        <v>33.382</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.53</v>
+        <v>5.531</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.35</v>
+        <v>12.349</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.15</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_55.xlsx
+++ b/DATA_goal/Junction_Flooding_55.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.96</v>
+        <v>14.957</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.92</v>
+        <v>10.919</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.705</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.69</v>
+        <v>31.694</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.72</v>
+        <v>25.725</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.01</v>
+        <v>11.014</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.02</v>
+        <v>44.017</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.21</v>
+        <v>17.214</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.6</v>
+        <v>7.601</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.42</v>
+        <v>11.417</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.58</v>
+        <v>12.579</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.84</v>
+        <v>13.841</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.622</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.86</v>
+        <v>10.858</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>16.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.305</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.415</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.17</v>
+        <v>164.168</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.53</v>
+        <v>31.532</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.5</v>
+        <v>21.503</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.37</v>
+        <v>11.375</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.477</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.27</v>
+        <v>21.271</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.19</v>
+        <v>9.188000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.79</v>
+        <v>7.788</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.58</v>
+        <v>9.584</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.34</v>
+        <v>13.344</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.46</v>
+        <v>39.459</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.78</v>
+        <v>5.779</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.84</v>
+        <v>12.844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.15</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_55.xlsx
+++ b/DATA_goal/Junction_Flooding_55.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.957</v>
+        <v>14.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.919</v>
+        <v>10.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.694</v>
+        <v>31.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.725</v>
+        <v>25.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.014</v>
+        <v>11.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.017</v>
+        <v>44.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.214</v>
+        <v>17.21</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.601</v>
+        <v>7.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.417</v>
+        <v>11.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.579</v>
+        <v>12.58</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.841</v>
+        <v>13.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.622</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.858</v>
+        <v>10.86</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>16.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.305</v>
+        <v>9.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.415</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.168</v>
+        <v>164.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.532</v>
+        <v>31.53</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.503</v>
+        <v>21.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.375</v>
+        <v>11.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.477</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.271</v>
+        <v>21.27</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.188000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.788</v>
+        <v>7.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.584</v>
+        <v>9.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.344</v>
+        <v>13.34</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.459</v>
+        <v>39.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.779</v>
+        <v>5.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.844</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.15</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.84</v>
+        <v>12.84</v>
       </c>
     </row>
   </sheetData>
